--- a/1_FCU_HA_v03.xlsx
+++ b/1_FCU_HA_v03.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A0ACC234-5CB5-40F3-B39E-00F2F74CF562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7C4D40-B1A5-40F5-AAD5-6338D3274DDF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIERARCHY" sheetId="1" r:id="rId1"/>
@@ -2297,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -8477,8 +8477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
